--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Epo-Epor.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Epo-Epor.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.188903</v>
+        <v>0.047125</v>
       </c>
       <c r="H2">
-        <v>0.566709</v>
+        <v>0.141375</v>
       </c>
       <c r="I2">
-        <v>0.3560183867666543</v>
+        <v>0.1108387998127795</v>
       </c>
       <c r="J2">
-        <v>0.3560183867666543</v>
+        <v>0.1108387998127795</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7665953333333334</v>
+        <v>0.3427866666666666</v>
       </c>
       <c r="N2">
-        <v>2.299786</v>
+        <v>1.02836</v>
       </c>
       <c r="O2">
-        <v>0.733025688885149</v>
+        <v>0.9518335355734316</v>
       </c>
       <c r="P2">
-        <v>0.7330256888851491</v>
+        <v>0.9518335355734318</v>
       </c>
       <c r="Q2">
-        <v>0.1448121582526667</v>
+        <v>0.01615382166666667</v>
       </c>
       <c r="R2">
-        <v>1.303309424274</v>
+        <v>0.145384395</v>
       </c>
       <c r="S2">
-        <v>0.2609706232154062</v>
+        <v>0.1055000867045137</v>
       </c>
       <c r="T2">
-        <v>0.2609706232154062</v>
+        <v>0.1055000867045137</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.188903</v>
+        <v>0.047125</v>
       </c>
       <c r="H3">
-        <v>0.566709</v>
+        <v>0.141375</v>
       </c>
       <c r="I3">
-        <v>0.3560183867666543</v>
+        <v>0.1108387998127795</v>
       </c>
       <c r="J3">
-        <v>0.3560183867666543</v>
+        <v>0.1108387998127795</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.2792006666666667</v>
+        <v>0.01734633333333334</v>
       </c>
       <c r="N3">
-        <v>0.837602</v>
+        <v>0.052039</v>
       </c>
       <c r="O3">
-        <v>0.2669743111148509</v>
+        <v>0.04816646442656834</v>
       </c>
       <c r="P3">
-        <v>0.2669743111148509</v>
+        <v>0.04816646442656834</v>
       </c>
       <c r="Q3">
-        <v>0.05274184353533334</v>
+        <v>0.0008174459583333335</v>
       </c>
       <c r="R3">
-        <v>0.474676591818</v>
+        <v>0.007357013625</v>
       </c>
       <c r="S3">
-        <v>0.09504776355124808</v>
+        <v>0.005338713108265771</v>
       </c>
       <c r="T3">
-        <v>0.09504776355124808</v>
+        <v>0.005338713108265771</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,40 +664,40 @@
         <v>0.6742790000000001</v>
       </c>
       <c r="I4">
-        <v>0.4235960992513493</v>
+        <v>0.5286385506557817</v>
       </c>
       <c r="J4">
-        <v>0.4235960992513493</v>
+        <v>0.5286385506557816</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7665953333333334</v>
+        <v>0.3427866666666666</v>
       </c>
       <c r="N4">
-        <v>2.299786</v>
+        <v>1.02836</v>
       </c>
       <c r="O4">
-        <v>0.733025688885149</v>
+        <v>0.9518335355734316</v>
       </c>
       <c r="P4">
-        <v>0.7330256888851491</v>
+        <v>0.9518335355734318</v>
       </c>
       <c r="Q4">
-        <v>0.1722997115882223</v>
+        <v>0.07704461693777778</v>
       </c>
       <c r="R4">
-        <v>1.550697404294</v>
+        <v>0.69340155244</v>
       </c>
       <c r="S4">
-        <v>0.3105068224627822</v>
+        <v>0.5031759007111073</v>
       </c>
       <c r="T4">
-        <v>0.3105068224627823</v>
+        <v>0.5031759007111073</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>0.6742790000000001</v>
       </c>
       <c r="I5">
-        <v>0.4235960992513493</v>
+        <v>0.5286385506557817</v>
       </c>
       <c r="J5">
-        <v>0.4235960992513493</v>
+        <v>0.5286385506557816</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.2792006666666667</v>
+        <v>0.01734633333333334</v>
       </c>
       <c r="N5">
-        <v>0.837602</v>
+        <v>0.052039</v>
       </c>
       <c r="O5">
-        <v>0.2669743111148509</v>
+        <v>0.04816646442656834</v>
       </c>
       <c r="P5">
-        <v>0.2669743111148509</v>
+        <v>0.04816646442656834</v>
       </c>
       <c r="Q5">
-        <v>0.06275304877311111</v>
+        <v>0.00389875609788889</v>
       </c>
       <c r="R5">
-        <v>0.564777438958</v>
+        <v>0.035088804881</v>
       </c>
       <c r="S5">
-        <v>0.113089276788567</v>
+        <v>0.02546264994467436</v>
       </c>
       <c r="T5">
-        <v>0.113089276788567</v>
+        <v>0.02546264994467435</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1169363333333333</v>
+        <v>0.1532823333333333</v>
       </c>
       <c r="H6">
-        <v>0.350809</v>
+        <v>0.459847</v>
       </c>
       <c r="I6">
-        <v>0.2203855139819964</v>
+        <v>0.360522649531439</v>
       </c>
       <c r="J6">
-        <v>0.2203855139819964</v>
+        <v>0.360522649531439</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7665953333333334</v>
+        <v>0.3427866666666666</v>
       </c>
       <c r="N6">
-        <v>2.299786</v>
+        <v>1.02836</v>
       </c>
       <c r="O6">
-        <v>0.733025688885149</v>
+        <v>0.9518335355734316</v>
       </c>
       <c r="P6">
-        <v>0.7330256888851491</v>
+        <v>0.9518335355734318</v>
       </c>
       <c r="Q6">
-        <v>0.08964284743044444</v>
+        <v>0.05254314010222221</v>
       </c>
       <c r="R6">
-        <v>0.806785626874</v>
+        <v>0.4728882609199999</v>
       </c>
       <c r="S6">
-        <v>0.1615482432069605</v>
+        <v>0.3431575481578108</v>
       </c>
       <c r="T6">
-        <v>0.1615482432069606</v>
+        <v>0.3431575481578108</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1169363333333333</v>
+        <v>0.1532823333333333</v>
       </c>
       <c r="H7">
-        <v>0.350809</v>
+        <v>0.459847</v>
       </c>
       <c r="I7">
-        <v>0.2203855139819964</v>
+        <v>0.360522649531439</v>
       </c>
       <c r="J7">
-        <v>0.2203855139819964</v>
+        <v>0.360522649531439</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.2792006666666667</v>
+        <v>0.01734633333333334</v>
       </c>
       <c r="N7">
-        <v>0.837602</v>
+        <v>0.052039</v>
       </c>
       <c r="O7">
-        <v>0.2669743111148509</v>
+        <v>0.04816646442656834</v>
       </c>
       <c r="P7">
-        <v>0.2669743111148509</v>
+        <v>0.04816646442656834</v>
       </c>
       <c r="Q7">
-        <v>0.03264870222422222</v>
+        <v>0.002658886448111111</v>
       </c>
       <c r="R7">
-        <v>0.293838320018</v>
+        <v>0.023929978033</v>
       </c>
       <c r="S7">
-        <v>0.05883727077503582</v>
+        <v>0.01736510137362822</v>
       </c>
       <c r="T7">
-        <v>0.05883727077503584</v>
+        <v>0.01736510137362822</v>
       </c>
     </row>
   </sheetData>
